--- a/AAII_Financials/Quarterly/KNMCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNMCY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>KNMCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>647600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>669000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>600400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>524500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>649500</v>
+      </c>
+      <c r="I8" s="3">
         <v>654600</v>
       </c>
-      <c r="E8" s="3">
-        <v>587500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>513200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>635600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>640500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>579100</v>
-      </c>
       <c r="J8" s="3">
+        <v>591900</v>
+      </c>
+      <c r="K8" s="3">
         <v>531400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>549900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>572300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>538900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>503900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>585300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>554700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>406200</v>
+        <v>415700</v>
       </c>
       <c r="E9" s="3">
-        <v>362900</v>
+        <v>415100</v>
       </c>
       <c r="F9" s="3">
-        <v>306300</v>
+        <v>370900</v>
       </c>
       <c r="G9" s="3">
-        <v>377700</v>
+        <v>313000</v>
       </c>
       <c r="H9" s="3">
-        <v>376100</v>
+        <v>386000</v>
       </c>
       <c r="I9" s="3">
-        <v>346100</v>
+        <v>384400</v>
       </c>
       <c r="J9" s="3">
+        <v>353700</v>
+      </c>
+      <c r="K9" s="3">
         <v>312300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>340500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>342400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>312800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>290100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>366500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>345000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>276200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>248400</v>
+        <v>231900</v>
       </c>
       <c r="E10" s="3">
-        <v>224600</v>
+        <v>253900</v>
       </c>
       <c r="F10" s="3">
-        <v>206900</v>
+        <v>229500</v>
       </c>
       <c r="G10" s="3">
-        <v>257800</v>
+        <v>211500</v>
       </c>
       <c r="H10" s="3">
-        <v>264400</v>
+        <v>263500</v>
       </c>
       <c r="I10" s="3">
-        <v>233000</v>
+        <v>270200</v>
       </c>
       <c r="J10" s="3">
+        <v>238100</v>
+      </c>
+      <c r="K10" s="3">
         <v>219100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>209400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>230000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>226100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>213900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>218800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>209800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>626900</v>
+        <v>582600</v>
       </c>
       <c r="E17" s="3">
-        <v>488300</v>
+        <v>640700</v>
       </c>
       <c r="F17" s="3">
-        <v>422200</v>
+        <v>499100</v>
       </c>
       <c r="G17" s="3">
-        <v>534800</v>
+        <v>431500</v>
       </c>
       <c r="H17" s="3">
-        <v>509500</v>
+        <v>546600</v>
       </c>
       <c r="I17" s="3">
-        <v>459000</v>
+        <v>520700</v>
       </c>
       <c r="J17" s="3">
+        <v>469100</v>
+      </c>
+      <c r="K17" s="3">
         <v>424000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>489800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>449600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>423600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>393700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>525200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>443400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>390600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>27800</v>
+        <v>65000</v>
       </c>
       <c r="E18" s="3">
-        <v>99100</v>
+        <v>28400</v>
       </c>
       <c r="F18" s="3">
-        <v>91000</v>
+        <v>101300</v>
       </c>
       <c r="G18" s="3">
-        <v>100700</v>
+        <v>93000</v>
       </c>
       <c r="H18" s="3">
-        <v>131000</v>
+        <v>103000</v>
       </c>
       <c r="I18" s="3">
-        <v>120100</v>
+        <v>133900</v>
       </c>
       <c r="J18" s="3">
+        <v>122700</v>
+      </c>
+      <c r="K18" s="3">
         <v>107400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>122800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>115300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>110300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>111300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F20" s="3">
-        <v>-2800</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>-900</v>
-      </c>
       <c r="J20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>95600</v>
+        <v>125100</v>
       </c>
       <c r="E21" s="3">
-        <v>165000</v>
+        <v>97700</v>
       </c>
       <c r="F21" s="3">
-        <v>135000</v>
+        <v>168600</v>
       </c>
       <c r="G21" s="3">
-        <v>132000</v>
+        <v>137900</v>
       </c>
       <c r="H21" s="3">
-        <v>163900</v>
+        <v>134900</v>
       </c>
       <c r="I21" s="3">
-        <v>151400</v>
+        <v>167500</v>
       </c>
       <c r="J21" s="3">
+        <v>154700</v>
+      </c>
+      <c r="K21" s="3">
         <v>138100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>89000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>155200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>142600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>130200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>108600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>159200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28100</v>
+        <v>64100</v>
       </c>
       <c r="E23" s="3">
-        <v>97200</v>
+        <v>28700</v>
       </c>
       <c r="F23" s="3">
-        <v>88200</v>
+        <v>99400</v>
       </c>
       <c r="G23" s="3">
-        <v>101100</v>
+        <v>90200</v>
       </c>
       <c r="H23" s="3">
-        <v>129400</v>
+        <v>103300</v>
       </c>
       <c r="I23" s="3">
-        <v>119200</v>
+        <v>132300</v>
       </c>
       <c r="J23" s="3">
+        <v>121800</v>
+      </c>
+      <c r="K23" s="3">
         <v>107600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>59400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>120200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>115400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>109100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>59100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>111900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18000</v>
+        <v>30800</v>
       </c>
       <c r="E24" s="3">
-        <v>25200</v>
+        <v>18400</v>
       </c>
       <c r="F24" s="3">
-        <v>22100</v>
+        <v>25800</v>
       </c>
       <c r="G24" s="3">
-        <v>37500</v>
+        <v>22500</v>
       </c>
       <c r="H24" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="I24" s="3">
-        <v>38100</v>
+        <v>39100</v>
       </c>
       <c r="J24" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K24" s="3">
         <v>32400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10100</v>
+        <v>33300</v>
       </c>
       <c r="E26" s="3">
-        <v>72000</v>
+        <v>10300</v>
       </c>
       <c r="F26" s="3">
-        <v>66200</v>
+        <v>73600</v>
       </c>
       <c r="G26" s="3">
-        <v>63600</v>
+        <v>67600</v>
       </c>
       <c r="H26" s="3">
-        <v>91100</v>
+        <v>65000</v>
       </c>
       <c r="I26" s="3">
-        <v>81100</v>
+        <v>93100</v>
       </c>
       <c r="J26" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K26" s="3">
         <v>75200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>80100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>78400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>77000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>47000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10100</v>
+        <v>33300</v>
       </c>
       <c r="E27" s="3">
-        <v>72000</v>
+        <v>10300</v>
       </c>
       <c r="F27" s="3">
-        <v>66200</v>
+        <v>73600</v>
       </c>
       <c r="G27" s="3">
-        <v>63500</v>
+        <v>67600</v>
       </c>
       <c r="H27" s="3">
-        <v>91100</v>
+        <v>64900</v>
       </c>
       <c r="I27" s="3">
-        <v>81100</v>
+        <v>93100</v>
       </c>
       <c r="J27" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K27" s="3">
         <v>75200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>40400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>80000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>78400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>74800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>1900</v>
-      </c>
       <c r="F32" s="3">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>900</v>
-      </c>
       <c r="J32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10100</v>
+        <v>33300</v>
       </c>
       <c r="E33" s="3">
-        <v>72000</v>
+        <v>10300</v>
       </c>
       <c r="F33" s="3">
-        <v>66200</v>
+        <v>73600</v>
       </c>
       <c r="G33" s="3">
-        <v>63500</v>
+        <v>67600</v>
       </c>
       <c r="H33" s="3">
-        <v>91100</v>
+        <v>64900</v>
       </c>
       <c r="I33" s="3">
-        <v>81100</v>
+        <v>93100</v>
       </c>
       <c r="J33" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K33" s="3">
         <v>75200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>80000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>78400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>76900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10100</v>
+        <v>33300</v>
       </c>
       <c r="E35" s="3">
-        <v>72000</v>
+        <v>10300</v>
       </c>
       <c r="F35" s="3">
-        <v>66200</v>
+        <v>73600</v>
       </c>
       <c r="G35" s="3">
-        <v>63500</v>
+        <v>67600</v>
       </c>
       <c r="H35" s="3">
-        <v>91100</v>
+        <v>64900</v>
       </c>
       <c r="I35" s="3">
-        <v>81100</v>
+        <v>93100</v>
       </c>
       <c r="J35" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K35" s="3">
         <v>75200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>80000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>78400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>76900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1019300</v>
+        <v>1221000</v>
       </c>
       <c r="E41" s="3">
-        <v>1267000</v>
+        <v>1041800</v>
       </c>
       <c r="F41" s="3">
-        <v>1344100</v>
+        <v>1294900</v>
       </c>
       <c r="G41" s="3">
-        <v>1447500</v>
+        <v>1373600</v>
       </c>
       <c r="H41" s="3">
-        <v>1358500</v>
+        <v>1479400</v>
       </c>
       <c r="I41" s="3">
-        <v>1378500</v>
+        <v>1388400</v>
       </c>
       <c r="J41" s="3">
+        <v>1408800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1356000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1396500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1298400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1238000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1213400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1195200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1127000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1017500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,337 +2237,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>284900</v>
+        <v>295600</v>
       </c>
       <c r="E43" s="3">
-        <v>305600</v>
+        <v>291200</v>
       </c>
       <c r="F43" s="3">
-        <v>252700</v>
+        <v>312300</v>
       </c>
       <c r="G43" s="3">
-        <v>298300</v>
+        <v>258200</v>
       </c>
       <c r="H43" s="3">
-        <v>274500</v>
+        <v>304800</v>
       </c>
       <c r="I43" s="3">
-        <v>279600</v>
+        <v>280500</v>
       </c>
       <c r="J43" s="3">
+        <v>285700</v>
+      </c>
+      <c r="K43" s="3">
         <v>237200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>242300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>258500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>276400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>212300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>237700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>258800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>216600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>101400</v>
+        <v>92900</v>
       </c>
       <c r="E44" s="3">
-        <v>113500</v>
+        <v>103600</v>
       </c>
       <c r="F44" s="3">
-        <v>85200</v>
+        <v>116000</v>
       </c>
       <c r="G44" s="3">
-        <v>75600</v>
+        <v>87100</v>
       </c>
       <c r="H44" s="3">
-        <v>80400</v>
+        <v>77200</v>
       </c>
       <c r="I44" s="3">
-        <v>95000</v>
+        <v>82200</v>
       </c>
       <c r="J44" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K44" s="3">
         <v>76200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>72900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>88700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>71800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>65900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>85800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128800</v>
+        <v>134600</v>
       </c>
       <c r="E45" s="3">
-        <v>71400</v>
+        <v>131700</v>
       </c>
       <c r="F45" s="3">
-        <v>76100</v>
+        <v>73000</v>
       </c>
       <c r="G45" s="3">
-        <v>66800</v>
+        <v>77800</v>
       </c>
       <c r="H45" s="3">
-        <v>69000</v>
+        <v>68300</v>
       </c>
       <c r="I45" s="3">
-        <v>68600</v>
+        <v>70500</v>
       </c>
       <c r="J45" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K45" s="3">
         <v>78400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>70300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>53000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1534400</v>
+        <v>1744100</v>
       </c>
       <c r="E46" s="3">
-        <v>1757500</v>
+        <v>1568200</v>
       </c>
       <c r="F46" s="3">
-        <v>1758100</v>
+        <v>1796200</v>
       </c>
       <c r="G46" s="3">
-        <v>1888200</v>
+        <v>1796800</v>
       </c>
       <c r="H46" s="3">
-        <v>1782400</v>
+        <v>1929700</v>
       </c>
       <c r="I46" s="3">
         <v>1821600</v>
       </c>
       <c r="J46" s="3">
+        <v>1861700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1747900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1768900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1698700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1673400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1558400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1551800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1526200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1392500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>188900</v>
+        <v>189100</v>
       </c>
       <c r="E47" s="3">
+        <v>193000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>237800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>235000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>234800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>234400</v>
+      </c>
+      <c r="J47" s="3">
         <v>232600</v>
       </c>
-      <c r="F47" s="3">
-        <v>229900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>229700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>229300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>227600</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>231900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>231500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>228100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>224300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>225100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>223200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>223900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1304400</v>
+        <v>1385300</v>
       </c>
       <c r="E48" s="3">
-        <v>1086100</v>
+        <v>1333100</v>
       </c>
       <c r="F48" s="3">
-        <v>1070000</v>
+        <v>1110000</v>
       </c>
       <c r="G48" s="3">
-        <v>747600</v>
+        <v>1093500</v>
       </c>
       <c r="H48" s="3">
-        <v>715100</v>
+        <v>764000</v>
       </c>
       <c r="I48" s="3">
-        <v>715900</v>
+        <v>730800</v>
       </c>
       <c r="J48" s="3">
+        <v>731700</v>
+      </c>
+      <c r="K48" s="3">
         <v>717100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>714900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>694000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>688800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>689600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>670600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>687000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>687300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>335700</v>
+        <v>319800</v>
       </c>
       <c r="E49" s="3">
-        <v>364500</v>
+        <v>343100</v>
       </c>
       <c r="F49" s="3">
-        <v>367000</v>
+        <v>372500</v>
       </c>
       <c r="G49" s="3">
-        <v>346100</v>
+        <v>375100</v>
       </c>
       <c r="H49" s="3">
-        <v>357000</v>
+        <v>353800</v>
       </c>
       <c r="I49" s="3">
-        <v>358000</v>
+        <v>364900</v>
       </c>
       <c r="J49" s="3">
+        <v>365900</v>
+      </c>
+      <c r="K49" s="3">
         <v>346300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>333300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>343500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>342800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>329300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>308400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>347600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>357300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>234400</v>
+        <v>255400</v>
       </c>
       <c r="E52" s="3">
-        <v>232300</v>
+        <v>239600</v>
       </c>
       <c r="F52" s="3">
-        <v>233500</v>
+        <v>237500</v>
       </c>
       <c r="G52" s="3">
-        <v>224700</v>
+        <v>238700</v>
       </c>
       <c r="H52" s="3">
-        <v>218600</v>
+        <v>229700</v>
       </c>
       <c r="I52" s="3">
-        <v>226400</v>
+        <v>223400</v>
       </c>
       <c r="J52" s="3">
+        <v>231400</v>
+      </c>
+      <c r="K52" s="3">
         <v>230700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>233900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>218800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>231100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>235700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>236500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>226100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>228700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3597800</v>
+        <v>3893800</v>
       </c>
       <c r="E54" s="3">
-        <v>3673100</v>
+        <v>3677000</v>
       </c>
       <c r="F54" s="3">
-        <v>3658500</v>
+        <v>3753900</v>
       </c>
       <c r="G54" s="3">
-        <v>3436400</v>
+        <v>3739000</v>
       </c>
       <c r="H54" s="3">
-        <v>3302500</v>
+        <v>3512000</v>
       </c>
       <c r="I54" s="3">
-        <v>3349600</v>
+        <v>3375100</v>
       </c>
       <c r="J54" s="3">
+        <v>3423300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3273800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3282500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3183100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3160300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3038000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2990500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3010800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2892100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>262500</v>
+        <v>290400</v>
       </c>
       <c r="E57" s="3">
-        <v>206300</v>
+        <v>268300</v>
       </c>
       <c r="F57" s="3">
-        <v>228600</v>
+        <v>210900</v>
       </c>
       <c r="G57" s="3">
-        <v>286600</v>
+        <v>233600</v>
       </c>
       <c r="H57" s="3">
-        <v>250100</v>
+        <v>292900</v>
       </c>
       <c r="I57" s="3">
-        <v>250700</v>
+        <v>255600</v>
       </c>
       <c r="J57" s="3">
+        <v>256200</v>
+      </c>
+      <c r="K57" s="3">
         <v>229900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>282500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>242100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>236900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>197500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>229300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>232200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39800</v>
+        <v>262600</v>
       </c>
       <c r="E58" s="3">
-        <v>49000</v>
+        <v>40700</v>
       </c>
       <c r="F58" s="3">
-        <v>94400</v>
+        <v>50100</v>
       </c>
       <c r="G58" s="3">
-        <v>95900</v>
+        <v>96500</v>
       </c>
       <c r="H58" s="3">
-        <v>106000</v>
+        <v>98000</v>
       </c>
       <c r="I58" s="3">
-        <v>107400</v>
+        <v>108300</v>
       </c>
       <c r="J58" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K58" s="3">
         <v>110800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>107600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>96200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>96100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>95800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>94100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>127000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>320400</v>
+        <v>345900</v>
       </c>
       <c r="E59" s="3">
-        <v>376500</v>
+        <v>327400</v>
       </c>
       <c r="F59" s="3">
-        <v>351900</v>
+        <v>384700</v>
       </c>
       <c r="G59" s="3">
-        <v>261400</v>
+        <v>359700</v>
       </c>
       <c r="H59" s="3">
-        <v>202800</v>
+        <v>267100</v>
       </c>
       <c r="I59" s="3">
-        <v>245300</v>
+        <v>207300</v>
       </c>
       <c r="J59" s="3">
+        <v>250700</v>
+      </c>
+      <c r="K59" s="3">
         <v>225100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>236300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>213000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>235600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>186300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>180800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>196000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>205700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>622700</v>
+        <v>899000</v>
       </c>
       <c r="E60" s="3">
-        <v>631900</v>
+        <v>636400</v>
       </c>
       <c r="F60" s="3">
-        <v>675000</v>
+        <v>645800</v>
       </c>
       <c r="G60" s="3">
-        <v>643900</v>
+        <v>689800</v>
       </c>
       <c r="H60" s="3">
-        <v>558900</v>
+        <v>658000</v>
       </c>
       <c r="I60" s="3">
-        <v>603300</v>
+        <v>571200</v>
       </c>
       <c r="J60" s="3">
+        <v>616600</v>
+      </c>
+      <c r="K60" s="3">
         <v>565800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>626400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>551300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>568600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>479600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>504200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>555300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>89500</v>
+        <v>91600</v>
       </c>
       <c r="E61" s="3">
-        <v>89300</v>
+        <v>91400</v>
       </c>
       <c r="F61" s="3">
-        <v>89200</v>
+        <v>91300</v>
       </c>
       <c r="G61" s="3">
-        <v>89100</v>
+        <v>91200</v>
       </c>
       <c r="H61" s="3">
-        <v>89000</v>
+        <v>91100</v>
       </c>
       <c r="I61" s="3">
-        <v>88900</v>
+        <v>90900</v>
       </c>
       <c r="J61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="K61" s="3">
         <v>134200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>133300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>253100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>256900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>306100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>304300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>308300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>312300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>403100</v>
+        <v>404800</v>
       </c>
       <c r="E62" s="3">
-        <v>442800</v>
+        <v>412000</v>
       </c>
       <c r="F62" s="3">
-        <v>455100</v>
+        <v>452600</v>
       </c>
       <c r="G62" s="3">
-        <v>190900</v>
+        <v>465200</v>
       </c>
       <c r="H62" s="3">
-        <v>206200</v>
+        <v>195100</v>
       </c>
       <c r="I62" s="3">
-        <v>214400</v>
+        <v>210700</v>
       </c>
       <c r="J62" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K62" s="3">
         <v>221100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>221800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>97000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>97800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>98000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>95800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>98700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1122600</v>
+        <v>1402700</v>
       </c>
       <c r="E66" s="3">
-        <v>1171300</v>
+        <v>1147300</v>
       </c>
       <c r="F66" s="3">
-        <v>1226400</v>
+        <v>1197000</v>
       </c>
       <c r="G66" s="3">
-        <v>930900</v>
+        <v>1253400</v>
       </c>
       <c r="H66" s="3">
-        <v>861000</v>
+        <v>951400</v>
       </c>
       <c r="I66" s="3">
-        <v>913500</v>
+        <v>879900</v>
       </c>
       <c r="J66" s="3">
+        <v>933600</v>
+      </c>
+      <c r="K66" s="3">
         <v>928000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>988300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>908300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>930200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>890600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>911000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>968900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>943200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1551500</v>
+        <v>1618900</v>
       </c>
       <c r="E72" s="3">
-        <v>1588200</v>
+        <v>1585700</v>
       </c>
       <c r="F72" s="3">
-        <v>1516100</v>
+        <v>1623100</v>
       </c>
       <c r="G72" s="3">
-        <v>1577500</v>
+        <v>1549400</v>
       </c>
       <c r="H72" s="3">
-        <v>1514100</v>
+        <v>1612200</v>
       </c>
       <c r="I72" s="3">
-        <v>1497400</v>
+        <v>1547400</v>
       </c>
       <c r="J72" s="3">
+        <v>1530300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1416200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1380100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1339700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1296300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1218000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1168700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1121700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1067300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2475200</v>
+        <v>2491000</v>
       </c>
       <c r="E76" s="3">
-        <v>2501900</v>
+        <v>2529700</v>
       </c>
       <c r="F76" s="3">
-        <v>2432100</v>
+        <v>2556900</v>
       </c>
       <c r="G76" s="3">
-        <v>2505400</v>
+        <v>2485600</v>
       </c>
       <c r="H76" s="3">
-        <v>2441500</v>
+        <v>2560600</v>
       </c>
       <c r="I76" s="3">
-        <v>2436100</v>
+        <v>2495200</v>
       </c>
       <c r="J76" s="3">
+        <v>2489700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2345900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2294200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2274700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2230100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2147500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2079500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2041900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1948900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10100</v>
+        <v>33300</v>
       </c>
       <c r="E81" s="3">
-        <v>72000</v>
+        <v>10300</v>
       </c>
       <c r="F81" s="3">
-        <v>66200</v>
+        <v>73600</v>
       </c>
       <c r="G81" s="3">
-        <v>63500</v>
+        <v>67600</v>
       </c>
       <c r="H81" s="3">
-        <v>91100</v>
+        <v>64900</v>
       </c>
       <c r="I81" s="3">
-        <v>81100</v>
+        <v>93100</v>
       </c>
       <c r="J81" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K81" s="3">
         <v>75200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>80000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>78400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>76900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>67500</v>
+        <v>61000</v>
       </c>
       <c r="E83" s="3">
-        <v>67800</v>
+        <v>69000</v>
       </c>
       <c r="F83" s="3">
-        <v>46700</v>
+        <v>69200</v>
       </c>
       <c r="G83" s="3">
-        <v>30900</v>
+        <v>47700</v>
       </c>
       <c r="H83" s="3">
-        <v>34400</v>
+        <v>31600</v>
       </c>
       <c r="I83" s="3">
-        <v>32200</v>
+        <v>35200</v>
       </c>
       <c r="J83" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K83" s="3">
         <v>30500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>161700</v>
+        <v>155200</v>
       </c>
       <c r="E89" s="3">
-        <v>83600</v>
+        <v>165300</v>
       </c>
       <c r="F89" s="3">
-        <v>67800</v>
+        <v>85500</v>
       </c>
       <c r="G89" s="3">
-        <v>181000</v>
+        <v>69300</v>
       </c>
       <c r="H89" s="3">
-        <v>113600</v>
+        <v>185000</v>
       </c>
       <c r="I89" s="3">
-        <v>92500</v>
+        <v>116100</v>
       </c>
       <c r="J89" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K89" s="3">
         <v>59500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>148700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>111500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>88900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>159600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>119700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>90400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-325000</v>
+        <v>-113200</v>
       </c>
       <c r="E91" s="3">
-        <v>-84600</v>
+        <v>-332200</v>
       </c>
       <c r="F91" s="3">
-        <v>-48300</v>
+        <v>-86500</v>
       </c>
       <c r="G91" s="3">
-        <v>-72900</v>
+        <v>-49300</v>
       </c>
       <c r="H91" s="3">
-        <v>-46100</v>
+        <v>-74500</v>
       </c>
       <c r="I91" s="3">
-        <v>-32700</v>
+        <v>-47100</v>
       </c>
       <c r="J91" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-64800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-50600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-329800</v>
+        <v>-102400</v>
       </c>
       <c r="E94" s="3">
-        <v>-84000</v>
+        <v>-337100</v>
       </c>
       <c r="F94" s="3">
-        <v>-50800</v>
+        <v>-85900</v>
       </c>
       <c r="G94" s="3">
-        <v>-77200</v>
+        <v>-52000</v>
       </c>
       <c r="H94" s="3">
-        <v>-45500</v>
+        <v>-78900</v>
       </c>
       <c r="I94" s="3">
-        <v>-18500</v>
+        <v>-46500</v>
       </c>
       <c r="J94" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-63500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-46600</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-600</v>
       </c>
-      <c r="F96" s="3">
-        <v>-79900</v>
-      </c>
       <c r="G96" s="3">
+        <v>-81600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
-        <v>-74200</v>
-      </c>
       <c r="I96" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-46400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-36600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-49700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-85200</v>
+        <v>131500</v>
       </c>
       <c r="E100" s="3">
-        <v>-74700</v>
+        <v>-87100</v>
       </c>
       <c r="F100" s="3">
-        <v>-113100</v>
+        <v>-76300</v>
       </c>
       <c r="G100" s="3">
-        <v>-14000</v>
+        <v>-115500</v>
       </c>
       <c r="H100" s="3">
-        <v>-81100</v>
+        <v>-14300</v>
       </c>
       <c r="I100" s="3">
-        <v>-58000</v>
+        <v>-82900</v>
       </c>
       <c r="J100" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-50700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-41100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-49400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-54000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5600</v>
+        <v>-5100</v>
       </c>
       <c r="E101" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-7400</v>
-      </c>
       <c r="G101" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
-        <v>-7000</v>
-      </c>
       <c r="I101" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K101" s="3">
         <v>6500</v>
       </c>
-      <c r="J101" s="3">
-        <v>6500</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-247700</v>
+        <v>179200</v>
       </c>
       <c r="E102" s="3">
-        <v>-77000</v>
+        <v>-253100</v>
       </c>
       <c r="F102" s="3">
-        <v>-103500</v>
+        <v>-78700</v>
       </c>
       <c r="G102" s="3">
-        <v>89000</v>
+        <v>-105700</v>
       </c>
       <c r="H102" s="3">
-        <v>-20000</v>
+        <v>91000</v>
       </c>
       <c r="I102" s="3">
-        <v>22500</v>
+        <v>-20400</v>
       </c>
       <c r="J102" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-48300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>98100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>68200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>109500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>52100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNMCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNMCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>KNMCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>647600</v>
+        <v>499300</v>
       </c>
       <c r="E8" s="3">
-        <v>669000</v>
+        <v>658000</v>
       </c>
       <c r="F8" s="3">
-        <v>600400</v>
+        <v>679800</v>
       </c>
       <c r="G8" s="3">
-        <v>524500</v>
+        <v>610100</v>
       </c>
       <c r="H8" s="3">
-        <v>649500</v>
+        <v>533000</v>
       </c>
       <c r="I8" s="3">
-        <v>654600</v>
+        <v>660000</v>
       </c>
       <c r="J8" s="3">
+        <v>665200</v>
+      </c>
+      <c r="K8" s="3">
         <v>591900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>531400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>549900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>572300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>538900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>503900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>585300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>554700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>415700</v>
+        <v>283700</v>
       </c>
       <c r="E9" s="3">
-        <v>415100</v>
+        <v>422400</v>
       </c>
       <c r="F9" s="3">
-        <v>370900</v>
+        <v>421800</v>
       </c>
       <c r="G9" s="3">
-        <v>313000</v>
+        <v>376900</v>
       </c>
       <c r="H9" s="3">
-        <v>386000</v>
+        <v>318100</v>
       </c>
       <c r="I9" s="3">
-        <v>384400</v>
+        <v>392300</v>
       </c>
       <c r="J9" s="3">
+        <v>390600</v>
+      </c>
+      <c r="K9" s="3">
         <v>353700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>312300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>340500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>342400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>312800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>290100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>366500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>345000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>276200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>231900</v>
+        <v>215600</v>
       </c>
       <c r="E10" s="3">
-        <v>253900</v>
+        <v>235600</v>
       </c>
       <c r="F10" s="3">
-        <v>229500</v>
+        <v>258000</v>
       </c>
       <c r="G10" s="3">
-        <v>211500</v>
+        <v>233200</v>
       </c>
       <c r="H10" s="3">
-        <v>263500</v>
+        <v>214900</v>
       </c>
       <c r="I10" s="3">
-        <v>270200</v>
+        <v>267800</v>
       </c>
       <c r="J10" s="3">
+        <v>274600</v>
+      </c>
+      <c r="K10" s="3">
         <v>238100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>219100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>209400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>230000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>226100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>213900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>218800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>209800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>54000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>582600</v>
+        <v>435300</v>
       </c>
       <c r="E17" s="3">
-        <v>640700</v>
+        <v>592000</v>
       </c>
       <c r="F17" s="3">
-        <v>499100</v>
+        <v>651000</v>
       </c>
       <c r="G17" s="3">
-        <v>431500</v>
+        <v>507100</v>
       </c>
       <c r="H17" s="3">
-        <v>546600</v>
+        <v>438400</v>
       </c>
       <c r="I17" s="3">
-        <v>520700</v>
+        <v>555400</v>
       </c>
       <c r="J17" s="3">
+        <v>529100</v>
+      </c>
+      <c r="K17" s="3">
         <v>469100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>424000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>489800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>449600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>423600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>393700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>525200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>443400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>390600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>65000</v>
+        <v>63900</v>
       </c>
       <c r="E18" s="3">
-        <v>28400</v>
+        <v>66000</v>
       </c>
       <c r="F18" s="3">
-        <v>101300</v>
+        <v>28800</v>
       </c>
       <c r="G18" s="3">
-        <v>93000</v>
+        <v>103000</v>
       </c>
       <c r="H18" s="3">
-        <v>103000</v>
+        <v>94500</v>
       </c>
       <c r="I18" s="3">
-        <v>133900</v>
+        <v>104600</v>
       </c>
       <c r="J18" s="3">
+        <v>136100</v>
+      </c>
+      <c r="K18" s="3">
         <v>122700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>107400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>60100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>122800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>115300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>110300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>111300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>-1600</v>
-      </c>
       <c r="J20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>125100</v>
+        <v>104000</v>
       </c>
       <c r="E21" s="3">
-        <v>97700</v>
+        <v>127100</v>
       </c>
       <c r="F21" s="3">
-        <v>168600</v>
+        <v>99300</v>
       </c>
       <c r="G21" s="3">
-        <v>137900</v>
+        <v>171300</v>
       </c>
       <c r="H21" s="3">
-        <v>134900</v>
+        <v>140200</v>
       </c>
       <c r="I21" s="3">
-        <v>167500</v>
+        <v>137100</v>
       </c>
       <c r="J21" s="3">
+        <v>170200</v>
+      </c>
+      <c r="K21" s="3">
         <v>154700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>138100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>89000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>155200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>142600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>130200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>108600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>159200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>64100</v>
+        <v>59300</v>
       </c>
       <c r="E23" s="3">
-        <v>28700</v>
+        <v>65100</v>
       </c>
       <c r="F23" s="3">
-        <v>99400</v>
+        <v>29200</v>
       </c>
       <c r="G23" s="3">
-        <v>90200</v>
+        <v>101000</v>
       </c>
       <c r="H23" s="3">
-        <v>103300</v>
+        <v>91600</v>
       </c>
       <c r="I23" s="3">
-        <v>132300</v>
+        <v>105000</v>
       </c>
       <c r="J23" s="3">
+        <v>134400</v>
+      </c>
+      <c r="K23" s="3">
         <v>121800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>107600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>59400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>120200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>115400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>109100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>111900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30800</v>
+        <v>19700</v>
       </c>
       <c r="E24" s="3">
-        <v>18400</v>
+        <v>31300</v>
       </c>
       <c r="F24" s="3">
-        <v>25800</v>
+        <v>18700</v>
       </c>
       <c r="G24" s="3">
-        <v>22500</v>
+        <v>26200</v>
       </c>
       <c r="H24" s="3">
-        <v>38400</v>
+        <v>22900</v>
       </c>
       <c r="I24" s="3">
-        <v>39100</v>
+        <v>39000</v>
       </c>
       <c r="J24" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K24" s="3">
         <v>38900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33300</v>
+        <v>39600</v>
       </c>
       <c r="E26" s="3">
-        <v>10300</v>
+        <v>33800</v>
       </c>
       <c r="F26" s="3">
-        <v>73600</v>
+        <v>10500</v>
       </c>
       <c r="G26" s="3">
-        <v>67600</v>
+        <v>74800</v>
       </c>
       <c r="H26" s="3">
-        <v>65000</v>
+        <v>68700</v>
       </c>
       <c r="I26" s="3">
-        <v>93100</v>
+        <v>66000</v>
       </c>
       <c r="J26" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K26" s="3">
         <v>82900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>75200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>78400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>77000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>74900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33300</v>
+        <v>39600</v>
       </c>
       <c r="E27" s="3">
-        <v>10300</v>
+        <v>33800</v>
       </c>
       <c r="F27" s="3">
-        <v>73600</v>
+        <v>10500</v>
       </c>
       <c r="G27" s="3">
-        <v>67600</v>
+        <v>74800</v>
       </c>
       <c r="H27" s="3">
-        <v>64900</v>
+        <v>68700</v>
       </c>
       <c r="I27" s="3">
-        <v>93100</v>
+        <v>65900</v>
       </c>
       <c r="J27" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K27" s="3">
         <v>82900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>80000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>78400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>74800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>1600</v>
-      </c>
       <c r="J32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>33300</v>
+        <v>39600</v>
       </c>
       <c r="E33" s="3">
-        <v>10300</v>
+        <v>33800</v>
       </c>
       <c r="F33" s="3">
-        <v>73600</v>
+        <v>10500</v>
       </c>
       <c r="G33" s="3">
-        <v>67600</v>
+        <v>74800</v>
       </c>
       <c r="H33" s="3">
-        <v>64900</v>
+        <v>68700</v>
       </c>
       <c r="I33" s="3">
-        <v>93100</v>
+        <v>65900</v>
       </c>
       <c r="J33" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K33" s="3">
         <v>82900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>80000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>78400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>74800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>33300</v>
+        <v>39600</v>
       </c>
       <c r="E35" s="3">
-        <v>10300</v>
+        <v>33800</v>
       </c>
       <c r="F35" s="3">
-        <v>73600</v>
+        <v>10500</v>
       </c>
       <c r="G35" s="3">
-        <v>67600</v>
+        <v>74800</v>
       </c>
       <c r="H35" s="3">
-        <v>64900</v>
+        <v>68700</v>
       </c>
       <c r="I35" s="3">
-        <v>93100</v>
+        <v>65900</v>
       </c>
       <c r="J35" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K35" s="3">
         <v>82900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>80000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>78400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>74800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1221000</v>
+        <v>1253600</v>
       </c>
       <c r="E41" s="3">
-        <v>1041800</v>
+        <v>1240700</v>
       </c>
       <c r="F41" s="3">
-        <v>1294900</v>
+        <v>1058600</v>
       </c>
       <c r="G41" s="3">
-        <v>1373600</v>
+        <v>1315800</v>
       </c>
       <c r="H41" s="3">
-        <v>1479400</v>
+        <v>1395800</v>
       </c>
       <c r="I41" s="3">
-        <v>1388400</v>
+        <v>1503200</v>
       </c>
       <c r="J41" s="3">
+        <v>1410800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1408800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1356000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1396500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1298400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1238000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1213400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1195200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1127000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1017500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>295600</v>
+        <v>311800</v>
       </c>
       <c r="E43" s="3">
-        <v>291200</v>
+        <v>300400</v>
       </c>
       <c r="F43" s="3">
-        <v>312300</v>
+        <v>295900</v>
       </c>
       <c r="G43" s="3">
-        <v>258200</v>
+        <v>317400</v>
       </c>
       <c r="H43" s="3">
-        <v>304800</v>
+        <v>262400</v>
       </c>
       <c r="I43" s="3">
-        <v>280500</v>
+        <v>309800</v>
       </c>
       <c r="J43" s="3">
+        <v>285100</v>
+      </c>
+      <c r="K43" s="3">
         <v>285700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>237200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>242300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>258500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>276400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>212300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>237700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>258800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>216600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>92900</v>
+        <v>90600</v>
       </c>
       <c r="E44" s="3">
-        <v>103600</v>
+        <v>94400</v>
       </c>
       <c r="F44" s="3">
-        <v>116000</v>
+        <v>105300</v>
       </c>
       <c r="G44" s="3">
-        <v>87100</v>
+        <v>117800</v>
       </c>
       <c r="H44" s="3">
-        <v>77200</v>
+        <v>88500</v>
       </c>
       <c r="I44" s="3">
-        <v>82200</v>
+        <v>78500</v>
       </c>
       <c r="J44" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K44" s="3">
         <v>97100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>76200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>61800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>72900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>88700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>71800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>65900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>85800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>134600</v>
+        <v>145800</v>
       </c>
       <c r="E45" s="3">
-        <v>131700</v>
+        <v>136800</v>
       </c>
       <c r="F45" s="3">
-        <v>73000</v>
+        <v>133800</v>
       </c>
       <c r="G45" s="3">
-        <v>77800</v>
+        <v>74200</v>
       </c>
       <c r="H45" s="3">
-        <v>68300</v>
+        <v>79100</v>
       </c>
       <c r="I45" s="3">
-        <v>70500</v>
+        <v>69400</v>
       </c>
       <c r="J45" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K45" s="3">
         <v>70100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>68800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>70300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>53000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1744100</v>
+        <v>1801800</v>
       </c>
       <c r="E46" s="3">
-        <v>1568200</v>
+        <v>1772300</v>
       </c>
       <c r="F46" s="3">
-        <v>1796200</v>
+        <v>1593500</v>
       </c>
       <c r="G46" s="3">
-        <v>1796800</v>
+        <v>1825200</v>
       </c>
       <c r="H46" s="3">
-        <v>1929700</v>
+        <v>1825800</v>
       </c>
       <c r="I46" s="3">
-        <v>1821600</v>
+        <v>1960900</v>
       </c>
       <c r="J46" s="3">
+        <v>1851000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1861700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1747900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1768900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1698700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1673400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1558400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1551800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1526200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1392500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>189100</v>
+        <v>186400</v>
       </c>
       <c r="E47" s="3">
-        <v>193000</v>
+        <v>192200</v>
       </c>
       <c r="F47" s="3">
-        <v>237800</v>
+        <v>196200</v>
       </c>
       <c r="G47" s="3">
-        <v>235000</v>
+        <v>241600</v>
       </c>
       <c r="H47" s="3">
-        <v>234800</v>
+        <v>238700</v>
       </c>
       <c r="I47" s="3">
-        <v>234400</v>
+        <v>238600</v>
       </c>
       <c r="J47" s="3">
+        <v>238200</v>
+      </c>
+      <c r="K47" s="3">
         <v>232600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>231900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>231500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>228100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>224300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>225100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>223200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>223900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1385300</v>
+        <v>1399500</v>
       </c>
       <c r="E48" s="3">
-        <v>1333100</v>
+        <v>1407600</v>
       </c>
       <c r="F48" s="3">
-        <v>1110000</v>
+        <v>1354600</v>
       </c>
       <c r="G48" s="3">
-        <v>1093500</v>
+        <v>1128000</v>
       </c>
       <c r="H48" s="3">
-        <v>764000</v>
+        <v>1111200</v>
       </c>
       <c r="I48" s="3">
-        <v>730800</v>
+        <v>776400</v>
       </c>
       <c r="J48" s="3">
+        <v>742600</v>
+      </c>
+      <c r="K48" s="3">
         <v>731700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>717100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>714900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>694000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>688800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>689600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>670600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>687000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>687300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>319800</v>
+        <v>340000</v>
       </c>
       <c r="E49" s="3">
-        <v>343100</v>
+        <v>325000</v>
       </c>
       <c r="F49" s="3">
-        <v>372500</v>
+        <v>348600</v>
       </c>
       <c r="G49" s="3">
-        <v>375100</v>
+        <v>378500</v>
       </c>
       <c r="H49" s="3">
-        <v>353800</v>
+        <v>381200</v>
       </c>
       <c r="I49" s="3">
-        <v>364900</v>
+        <v>359500</v>
       </c>
       <c r="J49" s="3">
+        <v>370700</v>
+      </c>
+      <c r="K49" s="3">
         <v>365900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>346300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>333300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>343500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>342800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>329300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>308400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>347600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>357300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>255400</v>
+        <v>259800</v>
       </c>
       <c r="E52" s="3">
-        <v>239600</v>
+        <v>259600</v>
       </c>
       <c r="F52" s="3">
-        <v>237500</v>
+        <v>243400</v>
       </c>
       <c r="G52" s="3">
-        <v>238700</v>
+        <v>241300</v>
       </c>
       <c r="H52" s="3">
-        <v>229700</v>
+        <v>242500</v>
       </c>
       <c r="I52" s="3">
-        <v>223400</v>
+        <v>233400</v>
       </c>
       <c r="J52" s="3">
+        <v>227000</v>
+      </c>
+      <c r="K52" s="3">
         <v>231400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>230700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>233900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>218800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>231100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>235700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>236500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>226100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>228700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3893800</v>
+        <v>3987500</v>
       </c>
       <c r="E54" s="3">
-        <v>3677000</v>
+        <v>3956600</v>
       </c>
       <c r="F54" s="3">
-        <v>3753900</v>
+        <v>3736300</v>
       </c>
       <c r="G54" s="3">
-        <v>3739000</v>
+        <v>3814600</v>
       </c>
       <c r="H54" s="3">
-        <v>3512000</v>
+        <v>3799400</v>
       </c>
       <c r="I54" s="3">
-        <v>3375100</v>
+        <v>3568700</v>
       </c>
       <c r="J54" s="3">
+        <v>3429600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3423300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3273800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3282500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3183100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3160300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3038000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2990500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3010800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2892100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>290400</v>
+        <v>242500</v>
       </c>
       <c r="E57" s="3">
-        <v>268300</v>
+        <v>295100</v>
       </c>
       <c r="F57" s="3">
-        <v>210900</v>
+        <v>272600</v>
       </c>
       <c r="G57" s="3">
-        <v>233600</v>
+        <v>214300</v>
       </c>
       <c r="H57" s="3">
-        <v>292900</v>
+        <v>237400</v>
       </c>
       <c r="I57" s="3">
-        <v>255600</v>
+        <v>297600</v>
       </c>
       <c r="J57" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K57" s="3">
         <v>256200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>229900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>282500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>242100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>236900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>197500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>229300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>232200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>262600</v>
+        <v>286900</v>
       </c>
       <c r="E58" s="3">
-        <v>40700</v>
+        <v>381900</v>
       </c>
       <c r="F58" s="3">
-        <v>50100</v>
+        <v>41400</v>
       </c>
       <c r="G58" s="3">
-        <v>96500</v>
+        <v>50900</v>
       </c>
       <c r="H58" s="3">
-        <v>98000</v>
+        <v>98100</v>
       </c>
       <c r="I58" s="3">
-        <v>108300</v>
+        <v>99600</v>
       </c>
       <c r="J58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K58" s="3">
         <v>109700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>110800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>107600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>96200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>96100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>95800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>94100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>127000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>345900</v>
+        <v>387500</v>
       </c>
       <c r="E59" s="3">
-        <v>327400</v>
+        <v>236500</v>
       </c>
       <c r="F59" s="3">
-        <v>384700</v>
+        <v>332700</v>
       </c>
       <c r="G59" s="3">
-        <v>359700</v>
+        <v>391000</v>
       </c>
       <c r="H59" s="3">
-        <v>267100</v>
+        <v>365500</v>
       </c>
       <c r="I59" s="3">
-        <v>207300</v>
+        <v>271400</v>
       </c>
       <c r="J59" s="3">
+        <v>210600</v>
+      </c>
+      <c r="K59" s="3">
         <v>250700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>225100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>236300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>213000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>235600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>186300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>180800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>196000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>205700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>899000</v>
+        <v>916800</v>
       </c>
       <c r="E60" s="3">
-        <v>636400</v>
+        <v>913500</v>
       </c>
       <c r="F60" s="3">
-        <v>645800</v>
+        <v>646700</v>
       </c>
       <c r="G60" s="3">
-        <v>689800</v>
+        <v>656200</v>
       </c>
       <c r="H60" s="3">
-        <v>658000</v>
+        <v>701000</v>
       </c>
       <c r="I60" s="3">
-        <v>571200</v>
+        <v>668600</v>
       </c>
       <c r="J60" s="3">
+        <v>580400</v>
+      </c>
+      <c r="K60" s="3">
         <v>616600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>565800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>626400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>551300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>568600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>479600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>504200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>555300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91600</v>
+        <v>93200</v>
       </c>
       <c r="E61" s="3">
-        <v>91400</v>
+        <v>93000</v>
       </c>
       <c r="F61" s="3">
-        <v>91300</v>
+        <v>92900</v>
       </c>
       <c r="G61" s="3">
-        <v>91200</v>
+        <v>92800</v>
       </c>
       <c r="H61" s="3">
-        <v>91100</v>
+        <v>92700</v>
       </c>
       <c r="I61" s="3">
-        <v>90900</v>
+        <v>92500</v>
       </c>
       <c r="J61" s="3">
+        <v>92400</v>
+      </c>
+      <c r="K61" s="3">
         <v>90800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>134200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>133300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>253100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>256900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>306100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>304300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>308300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>312300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>404800</v>
+        <v>406900</v>
       </c>
       <c r="E62" s="3">
-        <v>412000</v>
+        <v>411300</v>
       </c>
       <c r="F62" s="3">
-        <v>452600</v>
+        <v>418600</v>
       </c>
       <c r="G62" s="3">
-        <v>465200</v>
+        <v>459900</v>
       </c>
       <c r="H62" s="3">
-        <v>195100</v>
+        <v>472700</v>
       </c>
       <c r="I62" s="3">
-        <v>210700</v>
+        <v>198200</v>
       </c>
       <c r="J62" s="3">
+        <v>214100</v>
+      </c>
+      <c r="K62" s="3">
         <v>219100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>221100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>221800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>97000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>97800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>98000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>95800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>98700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1402700</v>
+        <v>1424400</v>
       </c>
       <c r="E66" s="3">
-        <v>1147300</v>
+        <v>1425400</v>
       </c>
       <c r="F66" s="3">
-        <v>1197000</v>
+        <v>1165800</v>
       </c>
       <c r="G66" s="3">
-        <v>1253400</v>
+        <v>1216400</v>
       </c>
       <c r="H66" s="3">
-        <v>951400</v>
+        <v>1273600</v>
       </c>
       <c r="I66" s="3">
-        <v>879900</v>
+        <v>966800</v>
       </c>
       <c r="J66" s="3">
+        <v>894200</v>
+      </c>
+      <c r="K66" s="3">
         <v>933600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>928000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>988300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>908300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>930200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>890600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>911000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>968900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>943200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1618900</v>
+        <v>1675900</v>
       </c>
       <c r="E72" s="3">
-        <v>1585700</v>
+        <v>1645100</v>
       </c>
       <c r="F72" s="3">
-        <v>1623100</v>
+        <v>1611300</v>
       </c>
       <c r="G72" s="3">
-        <v>1549400</v>
+        <v>1649300</v>
       </c>
       <c r="H72" s="3">
-        <v>1612200</v>
+        <v>1574500</v>
       </c>
       <c r="I72" s="3">
-        <v>1547400</v>
+        <v>1638300</v>
       </c>
       <c r="J72" s="3">
+        <v>1572400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1530300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1416200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1380100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1339700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1296300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1218000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1168700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1121700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1067300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2491000</v>
+        <v>2563100</v>
       </c>
       <c r="E76" s="3">
-        <v>2529700</v>
+        <v>2531300</v>
       </c>
       <c r="F76" s="3">
-        <v>2556900</v>
+        <v>2570500</v>
       </c>
       <c r="G76" s="3">
-        <v>2485600</v>
+        <v>2598200</v>
       </c>
       <c r="H76" s="3">
-        <v>2560600</v>
+        <v>2525700</v>
       </c>
       <c r="I76" s="3">
-        <v>2495200</v>
+        <v>2601900</v>
       </c>
       <c r="J76" s="3">
+        <v>2535500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2489700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2345900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2294200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2274700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2230100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2147500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2079500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2041900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1948900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>33300</v>
+        <v>39600</v>
       </c>
       <c r="E81" s="3">
-        <v>10300</v>
+        <v>33800</v>
       </c>
       <c r="F81" s="3">
-        <v>73600</v>
+        <v>10500</v>
       </c>
       <c r="G81" s="3">
-        <v>67600</v>
+        <v>74800</v>
       </c>
       <c r="H81" s="3">
-        <v>64900</v>
+        <v>68700</v>
       </c>
       <c r="I81" s="3">
-        <v>93100</v>
+        <v>65900</v>
       </c>
       <c r="J81" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K81" s="3">
         <v>82900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>80000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>78400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>74800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61000</v>
+        <v>44700</v>
       </c>
       <c r="E83" s="3">
-        <v>69000</v>
+        <v>62000</v>
       </c>
       <c r="F83" s="3">
-        <v>69200</v>
+        <v>70100</v>
       </c>
       <c r="G83" s="3">
-        <v>47700</v>
+        <v>70400</v>
       </c>
       <c r="H83" s="3">
-        <v>31600</v>
+        <v>48500</v>
       </c>
       <c r="I83" s="3">
-        <v>35200</v>
+        <v>32100</v>
       </c>
       <c r="J83" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K83" s="3">
         <v>33000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>155200</v>
+        <v>63700</v>
       </c>
       <c r="E89" s="3">
-        <v>165300</v>
+        <v>157700</v>
       </c>
       <c r="F89" s="3">
-        <v>85500</v>
+        <v>167900</v>
       </c>
       <c r="G89" s="3">
-        <v>69300</v>
+        <v>86900</v>
       </c>
       <c r="H89" s="3">
-        <v>185000</v>
+        <v>70500</v>
       </c>
       <c r="I89" s="3">
-        <v>116100</v>
+        <v>188000</v>
       </c>
       <c r="J89" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K89" s="3">
         <v>94500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>59500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>148700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>111500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>88900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>159600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>119700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>90400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-113200</v>
+        <v>-42600</v>
       </c>
       <c r="E91" s="3">
-        <v>-332200</v>
+        <v>-115000</v>
       </c>
       <c r="F91" s="3">
-        <v>-86500</v>
+        <v>-337500</v>
       </c>
       <c r="G91" s="3">
-        <v>-49300</v>
+        <v>-87900</v>
       </c>
       <c r="H91" s="3">
-        <v>-74500</v>
+        <v>-50100</v>
       </c>
       <c r="I91" s="3">
-        <v>-47100</v>
+        <v>-75700</v>
       </c>
       <c r="J91" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-33400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-64800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-50600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-102400</v>
+        <v>-33700</v>
       </c>
       <c r="E94" s="3">
-        <v>-337100</v>
+        <v>-104100</v>
       </c>
       <c r="F94" s="3">
-        <v>-85900</v>
+        <v>-342500</v>
       </c>
       <c r="G94" s="3">
-        <v>-52000</v>
+        <v>-87300</v>
       </c>
       <c r="H94" s="3">
-        <v>-78900</v>
+        <v>-52800</v>
       </c>
       <c r="I94" s="3">
-        <v>-46500</v>
+        <v>-80200</v>
       </c>
       <c r="J94" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-18900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-47600</v>
-      </c>
       <c r="F96" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-600</v>
       </c>
-      <c r="G96" s="3">
-        <v>-81600</v>
-      </c>
       <c r="H96" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-75800</v>
-      </c>
       <c r="J96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-36600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-49700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-20300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>131500</v>
+        <v>-17800</v>
       </c>
       <c r="E100" s="3">
-        <v>-87100</v>
+        <v>133600</v>
       </c>
       <c r="F100" s="3">
-        <v>-76300</v>
+        <v>-88500</v>
       </c>
       <c r="G100" s="3">
-        <v>-115500</v>
+        <v>-77500</v>
       </c>
       <c r="H100" s="3">
-        <v>-14300</v>
+        <v>-117400</v>
       </c>
       <c r="I100" s="3">
-        <v>-82900</v>
+        <v>-14500</v>
       </c>
       <c r="J100" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-59300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-50700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-49400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-54000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-24600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5100</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>5700</v>
+        <v>-5200</v>
       </c>
       <c r="F101" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-7500</v>
-      </c>
       <c r="H101" s="3">
-        <v>-800</v>
+        <v>-7700</v>
       </c>
       <c r="I101" s="3">
-        <v>-7100</v>
+        <v>-900</v>
       </c>
       <c r="J101" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K101" s="3">
         <v>6600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>24800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>179200</v>
+        <v>12900</v>
       </c>
       <c r="E102" s="3">
-        <v>-253100</v>
+        <v>182100</v>
       </c>
       <c r="F102" s="3">
-        <v>-78700</v>
+        <v>-257200</v>
       </c>
       <c r="G102" s="3">
-        <v>-105700</v>
+        <v>-80000</v>
       </c>
       <c r="H102" s="3">
-        <v>91000</v>
+        <v>-107400</v>
       </c>
       <c r="I102" s="3">
-        <v>-20400</v>
+        <v>92400</v>
       </c>
       <c r="J102" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="K102" s="3">
         <v>23000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>98100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>68200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>109500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>52100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNMCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNMCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>KNMCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>499300</v>
+        <v>607200</v>
       </c>
       <c r="E8" s="3">
-        <v>658000</v>
+        <v>508200</v>
       </c>
       <c r="F8" s="3">
-        <v>679800</v>
+        <v>669900</v>
       </c>
       <c r="G8" s="3">
-        <v>610100</v>
+        <v>692100</v>
       </c>
       <c r="H8" s="3">
-        <v>533000</v>
+        <v>621100</v>
       </c>
       <c r="I8" s="3">
-        <v>660000</v>
+        <v>542600</v>
       </c>
       <c r="J8" s="3">
+        <v>671900</v>
+      </c>
+      <c r="K8" s="3">
         <v>665200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>591900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>531400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>549900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>572300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>538900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>503900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>585300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>554700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>461100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>283700</v>
+        <v>371100</v>
       </c>
       <c r="E9" s="3">
-        <v>422400</v>
+        <v>288800</v>
       </c>
       <c r="F9" s="3">
-        <v>421800</v>
+        <v>430000</v>
       </c>
       <c r="G9" s="3">
-        <v>376900</v>
+        <v>429400</v>
       </c>
       <c r="H9" s="3">
-        <v>318100</v>
+        <v>383700</v>
       </c>
       <c r="I9" s="3">
-        <v>392300</v>
+        <v>323800</v>
       </c>
       <c r="J9" s="3">
+        <v>399300</v>
+      </c>
+      <c r="K9" s="3">
         <v>390600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>353700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>312300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>340500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>342400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>312800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>290100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>366500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>345000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>276200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>215600</v>
+        <v>236100</v>
       </c>
       <c r="E10" s="3">
-        <v>235600</v>
+        <v>219400</v>
       </c>
       <c r="F10" s="3">
-        <v>258000</v>
+        <v>239900</v>
       </c>
       <c r="G10" s="3">
-        <v>233200</v>
+        <v>262700</v>
       </c>
       <c r="H10" s="3">
-        <v>214900</v>
+        <v>237400</v>
       </c>
       <c r="I10" s="3">
-        <v>267800</v>
+        <v>218800</v>
       </c>
       <c r="J10" s="3">
+        <v>272600</v>
+      </c>
+      <c r="K10" s="3">
         <v>274600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>238100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>219100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>209400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>230000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>226100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>213900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>218800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>209800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>54000</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>55000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>435300</v>
+        <v>466900</v>
       </c>
       <c r="E17" s="3">
-        <v>592000</v>
+        <v>443200</v>
       </c>
       <c r="F17" s="3">
-        <v>651000</v>
+        <v>602600</v>
       </c>
       <c r="G17" s="3">
-        <v>507100</v>
+        <v>662700</v>
       </c>
       <c r="H17" s="3">
-        <v>438400</v>
+        <v>516300</v>
       </c>
       <c r="I17" s="3">
-        <v>555400</v>
+        <v>446300</v>
       </c>
       <c r="J17" s="3">
+        <v>565400</v>
+      </c>
+      <c r="K17" s="3">
         <v>529100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>469100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>424000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>489800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>449600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>423600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>393700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>525200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>443400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>390600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>63900</v>
+        <v>140300</v>
       </c>
       <c r="E18" s="3">
-        <v>66000</v>
+        <v>65100</v>
       </c>
       <c r="F18" s="3">
-        <v>28800</v>
+        <v>67200</v>
       </c>
       <c r="G18" s="3">
-        <v>103000</v>
+        <v>29300</v>
       </c>
       <c r="H18" s="3">
-        <v>94500</v>
+        <v>104800</v>
       </c>
       <c r="I18" s="3">
-        <v>104600</v>
+        <v>96200</v>
       </c>
       <c r="J18" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K18" s="3">
         <v>136100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>122700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>107400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>60100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>122800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>115300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>110300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>60100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>111300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4600</v>
+        <v>-6400</v>
       </c>
       <c r="E20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-2900</v>
-      </c>
       <c r="I20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>104000</v>
+        <v>178700</v>
       </c>
       <c r="E21" s="3">
-        <v>127100</v>
+        <v>105900</v>
       </c>
       <c r="F21" s="3">
-        <v>99300</v>
+        <v>129400</v>
       </c>
       <c r="G21" s="3">
-        <v>171300</v>
+        <v>101000</v>
       </c>
       <c r="H21" s="3">
-        <v>140200</v>
+        <v>174400</v>
       </c>
       <c r="I21" s="3">
-        <v>137100</v>
+        <v>142700</v>
       </c>
       <c r="J21" s="3">
+        <v>139600</v>
+      </c>
+      <c r="K21" s="3">
         <v>170200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>154700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>138100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>89000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>155200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>142600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>130200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>159200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>59300</v>
+        <v>133900</v>
       </c>
       <c r="E23" s="3">
-        <v>65100</v>
+        <v>60400</v>
       </c>
       <c r="F23" s="3">
-        <v>29200</v>
+        <v>66300</v>
       </c>
       <c r="G23" s="3">
-        <v>101000</v>
+        <v>29700</v>
       </c>
       <c r="H23" s="3">
-        <v>91600</v>
+        <v>102800</v>
       </c>
       <c r="I23" s="3">
-        <v>105000</v>
+        <v>93300</v>
       </c>
       <c r="J23" s="3">
+        <v>106900</v>
+      </c>
+      <c r="K23" s="3">
         <v>134400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>121800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>107600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>59400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>120200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>115400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>109100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>111900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19700</v>
+        <v>41700</v>
       </c>
       <c r="E24" s="3">
-        <v>31300</v>
+        <v>20100</v>
       </c>
       <c r="F24" s="3">
-        <v>18700</v>
+        <v>31900</v>
       </c>
       <c r="G24" s="3">
-        <v>26200</v>
+        <v>19000</v>
       </c>
       <c r="H24" s="3">
-        <v>22900</v>
+        <v>26700</v>
       </c>
       <c r="I24" s="3">
-        <v>39000</v>
+        <v>23300</v>
       </c>
       <c r="J24" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K24" s="3">
         <v>39800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39600</v>
+        <v>92200</v>
       </c>
       <c r="E26" s="3">
-        <v>33800</v>
+        <v>40300</v>
       </c>
       <c r="F26" s="3">
-        <v>10500</v>
+        <v>34500</v>
       </c>
       <c r="G26" s="3">
-        <v>74800</v>
+        <v>10700</v>
       </c>
       <c r="H26" s="3">
-        <v>68700</v>
+        <v>76100</v>
       </c>
       <c r="I26" s="3">
-        <v>66000</v>
+        <v>70000</v>
       </c>
       <c r="J26" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K26" s="3">
         <v>94600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>82900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>77000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>74900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39600</v>
+        <v>92200</v>
       </c>
       <c r="E27" s="3">
-        <v>33800</v>
+        <v>40300</v>
       </c>
       <c r="F27" s="3">
-        <v>10500</v>
+        <v>34400</v>
       </c>
       <c r="G27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>76100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>94600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>82900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>75200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>40400</v>
+      </c>
+      <c r="O27" s="3">
+        <v>80000</v>
+      </c>
+      <c r="P27" s="3">
+        <v>78400</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>76900</v>
+      </c>
+      <c r="R27" s="3">
+        <v>47000</v>
+      </c>
+      <c r="S27" s="3">
         <v>74800</v>
       </c>
-      <c r="H27" s="3">
-        <v>68700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>65900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>94600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>82900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>75200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>40400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>80000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>78400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>76900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>47000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>74800</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4600</v>
+        <v>6400</v>
       </c>
       <c r="E32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
-        <v>2900</v>
-      </c>
       <c r="I32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39600</v>
+        <v>92200</v>
       </c>
       <c r="E33" s="3">
-        <v>33800</v>
+        <v>40300</v>
       </c>
       <c r="F33" s="3">
-        <v>10500</v>
+        <v>34400</v>
       </c>
       <c r="G33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>76100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>94600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>82900</v>
+      </c>
+      <c r="M33" s="3">
+        <v>75200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>40400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>80000</v>
+      </c>
+      <c r="P33" s="3">
+        <v>78400</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>76900</v>
+      </c>
+      <c r="R33" s="3">
+        <v>47000</v>
+      </c>
+      <c r="S33" s="3">
         <v>74800</v>
       </c>
-      <c r="H33" s="3">
-        <v>68700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>65900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>94600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>82900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>75200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>40400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>80000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>78400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>76900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>47000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>74800</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39600</v>
+        <v>92200</v>
       </c>
       <c r="E35" s="3">
-        <v>33800</v>
+        <v>40300</v>
       </c>
       <c r="F35" s="3">
-        <v>10500</v>
+        <v>34400</v>
       </c>
       <c r="G35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>76100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>94600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>82900</v>
+      </c>
+      <c r="M35" s="3">
+        <v>75200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>40400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>80000</v>
+      </c>
+      <c r="P35" s="3">
+        <v>78400</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>76900</v>
+      </c>
+      <c r="R35" s="3">
+        <v>47000</v>
+      </c>
+      <c r="S35" s="3">
         <v>74800</v>
       </c>
-      <c r="H35" s="3">
-        <v>68700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>65900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>94600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>82900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>75200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>40400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>80000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>78400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>76900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>47000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>74800</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1253600</v>
+        <v>1683700</v>
       </c>
       <c r="E41" s="3">
-        <v>1240700</v>
+        <v>1276200</v>
       </c>
       <c r="F41" s="3">
-        <v>1058600</v>
+        <v>1263100</v>
       </c>
       <c r="G41" s="3">
-        <v>1315800</v>
+        <v>1077700</v>
       </c>
       <c r="H41" s="3">
-        <v>1395800</v>
+        <v>1339500</v>
       </c>
       <c r="I41" s="3">
-        <v>1503200</v>
+        <v>1420900</v>
       </c>
       <c r="J41" s="3">
+        <v>1530300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1410800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1408800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1356000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1396500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1298400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1238000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1213400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1195200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1127000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1017500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>311800</v>
+        <v>306000</v>
       </c>
       <c r="E43" s="3">
-        <v>300400</v>
+        <v>317400</v>
       </c>
       <c r="F43" s="3">
-        <v>295900</v>
+        <v>305800</v>
       </c>
       <c r="G43" s="3">
-        <v>317400</v>
+        <v>301200</v>
       </c>
       <c r="H43" s="3">
-        <v>262400</v>
+        <v>323100</v>
       </c>
       <c r="I43" s="3">
-        <v>309800</v>
+        <v>267100</v>
       </c>
       <c r="J43" s="3">
+        <v>315300</v>
+      </c>
+      <c r="K43" s="3">
         <v>285100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>285700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>237200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>242300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>258500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>276400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>212300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>237700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>258800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>216600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>90600</v>
+        <v>101800</v>
       </c>
       <c r="E44" s="3">
-        <v>94400</v>
+        <v>92300</v>
       </c>
       <c r="F44" s="3">
-        <v>105300</v>
+        <v>96100</v>
       </c>
       <c r="G44" s="3">
-        <v>117800</v>
+        <v>107200</v>
       </c>
       <c r="H44" s="3">
-        <v>88500</v>
+        <v>120000</v>
       </c>
       <c r="I44" s="3">
-        <v>78500</v>
+        <v>90100</v>
       </c>
       <c r="J44" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K44" s="3">
         <v>83500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>97100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>76200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>61800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>72900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>88700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>71800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>65900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>85800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>145800</v>
+        <v>133900</v>
       </c>
       <c r="E45" s="3">
-        <v>136800</v>
+        <v>148400</v>
       </c>
       <c r="F45" s="3">
-        <v>133800</v>
+        <v>139300</v>
       </c>
       <c r="G45" s="3">
-        <v>74200</v>
+        <v>136200</v>
       </c>
       <c r="H45" s="3">
-        <v>79100</v>
+        <v>75500</v>
       </c>
       <c r="I45" s="3">
-        <v>69400</v>
+        <v>80500</v>
       </c>
       <c r="J45" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K45" s="3">
         <v>71600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>70100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>68200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>68800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>70300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>53000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>54700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1801800</v>
+        <v>2225400</v>
       </c>
       <c r="E46" s="3">
-        <v>1772300</v>
+        <v>1834300</v>
       </c>
       <c r="F46" s="3">
-        <v>1593500</v>
+        <v>1804200</v>
       </c>
       <c r="G46" s="3">
-        <v>1825200</v>
+        <v>1622200</v>
       </c>
       <c r="H46" s="3">
-        <v>1825800</v>
+        <v>1858100</v>
       </c>
       <c r="I46" s="3">
-        <v>1960900</v>
+        <v>1858700</v>
       </c>
       <c r="J46" s="3">
+        <v>1996200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1851000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1861700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1747900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1768900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1698700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1673400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1558400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1551800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1526200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1392500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>186400</v>
+        <v>184900</v>
       </c>
       <c r="E47" s="3">
-        <v>192200</v>
+        <v>189800</v>
       </c>
       <c r="F47" s="3">
-        <v>196200</v>
+        <v>195600</v>
       </c>
       <c r="G47" s="3">
-        <v>241600</v>
+        <v>199700</v>
       </c>
       <c r="H47" s="3">
-        <v>238700</v>
+        <v>245900</v>
       </c>
       <c r="I47" s="3">
-        <v>238600</v>
+        <v>243000</v>
       </c>
       <c r="J47" s="3">
+        <v>242900</v>
+      </c>
+      <c r="K47" s="3">
         <v>238200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>232600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>231900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>231500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>228100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>224300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>225100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>223200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>223900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1399500</v>
+        <v>1419900</v>
       </c>
       <c r="E48" s="3">
-        <v>1407600</v>
+        <v>1424700</v>
       </c>
       <c r="F48" s="3">
-        <v>1354600</v>
+        <v>1433000</v>
       </c>
       <c r="G48" s="3">
-        <v>1128000</v>
+        <v>1379000</v>
       </c>
       <c r="H48" s="3">
-        <v>1111200</v>
+        <v>1148300</v>
       </c>
       <c r="I48" s="3">
-        <v>776400</v>
+        <v>1131200</v>
       </c>
       <c r="J48" s="3">
+        <v>790300</v>
+      </c>
+      <c r="K48" s="3">
         <v>742600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>731700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>717100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>714900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>694000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>688800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>689600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>670600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>687000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>687300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>340000</v>
+        <v>367000</v>
       </c>
       <c r="E49" s="3">
-        <v>325000</v>
+        <v>346100</v>
       </c>
       <c r="F49" s="3">
-        <v>348600</v>
+        <v>330800</v>
       </c>
       <c r="G49" s="3">
-        <v>378500</v>
+        <v>354900</v>
       </c>
       <c r="H49" s="3">
-        <v>381200</v>
+        <v>385300</v>
       </c>
       <c r="I49" s="3">
-        <v>359500</v>
+        <v>388000</v>
       </c>
       <c r="J49" s="3">
+        <v>365900</v>
+      </c>
+      <c r="K49" s="3">
         <v>370700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>365900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>346300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>333300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>343500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>342800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>329300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>308400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>347600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>357300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>259800</v>
+        <v>270400</v>
       </c>
       <c r="E52" s="3">
-        <v>259600</v>
+        <v>264400</v>
       </c>
       <c r="F52" s="3">
-        <v>243400</v>
+        <v>264200</v>
       </c>
       <c r="G52" s="3">
-        <v>241300</v>
+        <v>247800</v>
       </c>
       <c r="H52" s="3">
-        <v>242500</v>
+        <v>245600</v>
       </c>
       <c r="I52" s="3">
-        <v>233400</v>
+        <v>246900</v>
       </c>
       <c r="J52" s="3">
+        <v>237600</v>
+      </c>
+      <c r="K52" s="3">
         <v>227000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>231400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>230700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>233900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>218800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>231100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>235700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>236500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>226100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>228700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3987500</v>
+        <v>4467600</v>
       </c>
       <c r="E54" s="3">
-        <v>3956600</v>
+        <v>4059300</v>
       </c>
       <c r="F54" s="3">
-        <v>3736300</v>
+        <v>4027900</v>
       </c>
       <c r="G54" s="3">
-        <v>3814600</v>
+        <v>3803600</v>
       </c>
       <c r="H54" s="3">
-        <v>3799400</v>
+        <v>3883200</v>
       </c>
       <c r="I54" s="3">
-        <v>3568700</v>
+        <v>3867800</v>
       </c>
       <c r="J54" s="3">
+        <v>3632900</v>
+      </c>
+      <c r="K54" s="3">
         <v>3429600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3423300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3273800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3282500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3183100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3160300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3038000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2990500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3010800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2892100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>242500</v>
+        <v>265000</v>
       </c>
       <c r="E57" s="3">
-        <v>295100</v>
+        <v>246900</v>
       </c>
       <c r="F57" s="3">
-        <v>272600</v>
+        <v>300400</v>
       </c>
       <c r="G57" s="3">
-        <v>214300</v>
+        <v>277500</v>
       </c>
       <c r="H57" s="3">
-        <v>237400</v>
+        <v>218100</v>
       </c>
       <c r="I57" s="3">
-        <v>297600</v>
+        <v>241700</v>
       </c>
       <c r="J57" s="3">
+        <v>303000</v>
+      </c>
+      <c r="K57" s="3">
         <v>259700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>256200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>229900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>282500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>242100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>236900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>197500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>229300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>232200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>197000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>286900</v>
+        <v>50800</v>
       </c>
       <c r="E58" s="3">
-        <v>381900</v>
+        <v>292000</v>
       </c>
       <c r="F58" s="3">
-        <v>41400</v>
+        <v>388700</v>
       </c>
       <c r="G58" s="3">
-        <v>50900</v>
+        <v>42100</v>
       </c>
       <c r="H58" s="3">
-        <v>98100</v>
+        <v>51900</v>
       </c>
       <c r="I58" s="3">
-        <v>99600</v>
+        <v>99800</v>
       </c>
       <c r="J58" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K58" s="3">
         <v>110000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>109700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>110800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>107600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>96200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>96100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>95800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>94100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>127000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>116100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>387500</v>
+        <v>367400</v>
       </c>
       <c r="E59" s="3">
-        <v>236500</v>
+        <v>394500</v>
       </c>
       <c r="F59" s="3">
-        <v>332700</v>
+        <v>240700</v>
       </c>
       <c r="G59" s="3">
-        <v>391000</v>
+        <v>338700</v>
       </c>
       <c r="H59" s="3">
-        <v>365500</v>
+        <v>398000</v>
       </c>
       <c r="I59" s="3">
-        <v>271400</v>
+        <v>372100</v>
       </c>
       <c r="J59" s="3">
+        <v>255800</v>
+      </c>
+      <c r="K59" s="3">
         <v>210600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>250700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>225100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>236300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>213000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>235600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>186300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>180800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>196000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>205700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>916800</v>
+        <v>683200</v>
       </c>
       <c r="E60" s="3">
-        <v>913500</v>
+        <v>933400</v>
       </c>
       <c r="F60" s="3">
-        <v>646700</v>
+        <v>929900</v>
       </c>
       <c r="G60" s="3">
-        <v>656200</v>
+        <v>658300</v>
       </c>
       <c r="H60" s="3">
-        <v>701000</v>
+        <v>668000</v>
       </c>
       <c r="I60" s="3">
-        <v>668600</v>
+        <v>713600</v>
       </c>
       <c r="J60" s="3">
+        <v>680700</v>
+      </c>
+      <c r="K60" s="3">
         <v>580400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>616600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>565800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>626400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>551300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>568600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>479600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>504200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>555300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>93200</v>
+        <v>668800</v>
       </c>
       <c r="E61" s="3">
-        <v>93000</v>
+        <v>94800</v>
       </c>
       <c r="F61" s="3">
-        <v>92900</v>
+        <v>94700</v>
       </c>
       <c r="G61" s="3">
-        <v>92800</v>
+        <v>94600</v>
       </c>
       <c r="H61" s="3">
-        <v>92700</v>
+        <v>94500</v>
       </c>
       <c r="I61" s="3">
-        <v>92500</v>
+        <v>94300</v>
       </c>
       <c r="J61" s="3">
+        <v>189600</v>
+      </c>
+      <c r="K61" s="3">
         <v>92400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>90800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>134200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>133300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>253100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>256900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>306100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>304300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>308300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>312300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>406900</v>
+        <v>410800</v>
       </c>
       <c r="E62" s="3">
-        <v>411300</v>
+        <v>414200</v>
       </c>
       <c r="F62" s="3">
-        <v>418600</v>
+        <v>418700</v>
       </c>
       <c r="G62" s="3">
-        <v>459900</v>
+        <v>426200</v>
       </c>
       <c r="H62" s="3">
-        <v>472700</v>
+        <v>468200</v>
       </c>
       <c r="I62" s="3">
-        <v>198200</v>
+        <v>481200</v>
       </c>
       <c r="J62" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K62" s="3">
         <v>214100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>219100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>221100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>221800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>97000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>97800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>98000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>95800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>98700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1424400</v>
+        <v>1770400</v>
       </c>
       <c r="E66" s="3">
-        <v>1425400</v>
+        <v>1450100</v>
       </c>
       <c r="F66" s="3">
-        <v>1165800</v>
+        <v>1451000</v>
       </c>
       <c r="G66" s="3">
-        <v>1216400</v>
+        <v>1186800</v>
       </c>
       <c r="H66" s="3">
-        <v>1273600</v>
+        <v>1238300</v>
       </c>
       <c r="I66" s="3">
-        <v>966800</v>
+        <v>1296600</v>
       </c>
       <c r="J66" s="3">
+        <v>984200</v>
+      </c>
+      <c r="K66" s="3">
         <v>894200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>933600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>928000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>988300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>908300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>930200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>890600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>911000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>968900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>943200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1675900</v>
+        <v>1798300</v>
       </c>
       <c r="E72" s="3">
-        <v>1645100</v>
+        <v>1706000</v>
       </c>
       <c r="F72" s="3">
-        <v>1611300</v>
+        <v>1674700</v>
       </c>
       <c r="G72" s="3">
-        <v>1649300</v>
+        <v>1640300</v>
       </c>
       <c r="H72" s="3">
-        <v>1574500</v>
+        <v>1679000</v>
       </c>
       <c r="I72" s="3">
-        <v>1638300</v>
+        <v>1602800</v>
       </c>
       <c r="J72" s="3">
+        <v>1667800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1572400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1530300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1416200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1380100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1339700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1296300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1218000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1168700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1121700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1067300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2563100</v>
+        <v>2697200</v>
       </c>
       <c r="E76" s="3">
-        <v>2531300</v>
+        <v>2609200</v>
       </c>
       <c r="F76" s="3">
-        <v>2570500</v>
+        <v>2576800</v>
       </c>
       <c r="G76" s="3">
-        <v>2598200</v>
+        <v>2616800</v>
       </c>
       <c r="H76" s="3">
-        <v>2525700</v>
+        <v>2645000</v>
       </c>
       <c r="I76" s="3">
-        <v>2601900</v>
+        <v>2571200</v>
       </c>
       <c r="J76" s="3">
+        <v>2648800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2535500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2489700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2345900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2294200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2274700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2230100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2147500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2079500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2041900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1948900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39600</v>
+        <v>92200</v>
       </c>
       <c r="E81" s="3">
-        <v>33800</v>
+        <v>40300</v>
       </c>
       <c r="F81" s="3">
-        <v>10500</v>
+        <v>34400</v>
       </c>
       <c r="G81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>76100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>94600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>82900</v>
+      </c>
+      <c r="M81" s="3">
+        <v>75200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>40400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>80000</v>
+      </c>
+      <c r="P81" s="3">
+        <v>78400</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>76900</v>
+      </c>
+      <c r="R81" s="3">
+        <v>47000</v>
+      </c>
+      <c r="S81" s="3">
         <v>74800</v>
       </c>
-      <c r="H81" s="3">
-        <v>68700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>65900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>94600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>82900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>75200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>40400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>80000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>78400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>76900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>47000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>74800</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>56800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44700</v>
+        <v>44900</v>
       </c>
       <c r="E83" s="3">
-        <v>62000</v>
+        <v>45500</v>
       </c>
       <c r="F83" s="3">
-        <v>70100</v>
+        <v>63100</v>
       </c>
       <c r="G83" s="3">
-        <v>70400</v>
+        <v>71300</v>
       </c>
       <c r="H83" s="3">
-        <v>48500</v>
+        <v>71600</v>
       </c>
       <c r="I83" s="3">
-        <v>32100</v>
+        <v>49400</v>
       </c>
       <c r="J83" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K83" s="3">
         <v>35800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63700</v>
+        <v>156700</v>
       </c>
       <c r="E89" s="3">
-        <v>157700</v>
+        <v>64800</v>
       </c>
       <c r="F89" s="3">
-        <v>167900</v>
+        <v>160600</v>
       </c>
       <c r="G89" s="3">
-        <v>86900</v>
+        <v>171000</v>
       </c>
       <c r="H89" s="3">
-        <v>70500</v>
+        <v>88400</v>
       </c>
       <c r="I89" s="3">
-        <v>188000</v>
+        <v>71700</v>
       </c>
       <c r="J89" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K89" s="3">
         <v>118000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>94500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>59500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>138900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>148700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>111500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>88900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>159600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>119700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>90400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42600</v>
+        <v>-52400</v>
       </c>
       <c r="E91" s="3">
-        <v>-115000</v>
+        <v>-43400</v>
       </c>
       <c r="F91" s="3">
-        <v>-337500</v>
+        <v>-117100</v>
       </c>
       <c r="G91" s="3">
-        <v>-87900</v>
+        <v>-343600</v>
       </c>
       <c r="H91" s="3">
-        <v>-50100</v>
+        <v>-89500</v>
       </c>
       <c r="I91" s="3">
-        <v>-75700</v>
+        <v>-51000</v>
       </c>
       <c r="J91" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-47900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-64800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-50600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33700</v>
+        <v>-53000</v>
       </c>
       <c r="E94" s="3">
-        <v>-104100</v>
+        <v>-34300</v>
       </c>
       <c r="F94" s="3">
-        <v>-342500</v>
+        <v>-106000</v>
       </c>
       <c r="G94" s="3">
-        <v>-87300</v>
+        <v>-348700</v>
       </c>
       <c r="H94" s="3">
-        <v>-52800</v>
+        <v>-88900</v>
       </c>
       <c r="I94" s="3">
-        <v>-80200</v>
+        <v>-53800</v>
       </c>
       <c r="J94" s="3">
+        <v>-81600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-47300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-63500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8700</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-48400</v>
-      </c>
       <c r="G96" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-600</v>
       </c>
-      <c r="H96" s="3">
-        <v>-82900</v>
-      </c>
       <c r="I96" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-77000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-36600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-49700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-20300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17800</v>
+        <v>305300</v>
       </c>
       <c r="E100" s="3">
-        <v>133600</v>
+        <v>-18100</v>
       </c>
       <c r="F100" s="3">
-        <v>-88500</v>
+        <v>136000</v>
       </c>
       <c r="G100" s="3">
-        <v>-77500</v>
+        <v>-90100</v>
       </c>
       <c r="H100" s="3">
-        <v>-117400</v>
+        <v>-78900</v>
       </c>
       <c r="I100" s="3">
-        <v>-14500</v>
+        <v>-119500</v>
       </c>
       <c r="J100" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-84200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-59300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-50700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-49400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-24600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-5200</v>
-      </c>
       <c r="F101" s="3">
-        <v>5800</v>
+        <v>-5300</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>5900</v>
       </c>
       <c r="H101" s="3">
-        <v>-7700</v>
+        <v>-2100</v>
       </c>
       <c r="I101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>24800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12900</v>
+        <v>407500</v>
       </c>
       <c r="E102" s="3">
-        <v>182100</v>
+        <v>13200</v>
       </c>
       <c r="F102" s="3">
-        <v>-257200</v>
+        <v>185400</v>
       </c>
       <c r="G102" s="3">
-        <v>-80000</v>
+        <v>-261800</v>
       </c>
       <c r="H102" s="3">
-        <v>-107400</v>
+        <v>-81500</v>
       </c>
       <c r="I102" s="3">
-        <v>92400</v>
+        <v>-109400</v>
       </c>
       <c r="J102" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>98100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>60400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>68200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>109500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>52100</v>
       </c>
     </row>
